--- a/biology/Botanique/Tillandsia_heptantha/Tillandsia_heptantha.xlsx
+++ b/biology/Botanique/Tillandsia_heptantha/Tillandsia_heptantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia heptantha Ruiz &amp; Pav. est une plante de la famille des Bromeliaceae.
 L'épithète heptantha signifie « à sept fleurs » et se rapporte à l'aspect habituel de l'inflorescence.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia heptantha Ruiz &amp; Pav., Fl. Peruv. 3: 41, n° 6 (1802)
-Diagnose originale[1] :
+Diagnose originale :
 « T. spica septemflora disticha, petalis albis apice violaceis, foliis ensiformi-subulatis acutissimis. »
 Type : ? (aucun spécimen n'est cité dans le protologue et aucune illustration n'y est jointe. Pas d'information trouvée à propos d'un éventuel lectotype).
 </t>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,7 +620,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Biotype : plante vivace herbacée.
 Habitat : ?
@@ -634,12 +654,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Pérou
-Tarma[1]
-Huánuco[1]</t>
+Tarma
+Huánuco</t>
         </is>
       </c>
     </row>
@@ -668,6 +690,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
